--- a/biology/Biochimie/Caséine_alpha_s1/Caséine_alpha_s1.xlsx
+++ b/biology/Biochimie/Caséine_alpha_s1/Caséine_alpha_s1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cas%C3%A9ine_alpha_s1</t>
+          <t>Caséine_alpha_s1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La caséine αS1 est une protéine du lait de vache de 199 acides aminés ayant une masse moléculaire de 23 kDa. Elle représente de 34 à 40 % de la masse des caséines de ce lait, c'est-à-dire de 10 à 13 g/L[1].
+La caséine αS1 est une protéine du lait de vache de 199 acides aminés ayant une masse moléculaire de 23 kDa. Elle représente de 34 à 40 % de la masse des caséines de ce lait, c'est-à-dire de 10 à 13 g/L.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cas%C3%A9ine_alpha_s1</t>
+          <t>Caséine_alpha_s1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Structure primaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La séquence en acides aminés de la caséine αS1 a été déterminée en 1971[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La séquence en acides aminés de la caséine αS1 a été déterminée en 1971 :
 RPKHPIKHQG LPQEVLNENL LRFFVAPFPQ VFGKEKVNEL SKDIGSESTE DQAMEDIKQM EAESISSSEE IVPNSVEQKH
 1        10         20         30         40         50         60         70         80
 IQKEDVPSER YLGYLEQLLR LKKYKVPQLE IVPNSAEERL HSMKEGIHAQ QKEPMIGVNQ ELAYFYPELF RQFYQLDAYP
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cas%C3%A9ine_alpha_s1</t>
+          <t>Caséine_alpha_s1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,11 +569,13 @@
           <t>Hydrolyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hydrolyse pepsique de la caséine αS1 libère des peptides opioïdes dénommés exorphines, qui correspondent aux séquences 90-95 et 90-96 (le second étant plus efficace que le premier). La séquence 90-94 est également opioïde et fait partie des casomorphines (α-casomorphine).
 L'hydrolyse trypsique libère une séquence, 23-34, qui inhibe l'enzyme de conversion de l'angiotensine et présente donc des propriétés hypotensives. Deux autres fragments peptidiques (23-27 et 194-199) présentent de telles propriétés in vitro, mais qui n'ont pas été démontrées in vivo, possiblement en raison de leur hydrolyse par des peptidases du sang.
-L'hydrolyse par la chymosine libère un peptide anti-bactérien, 1-23, baptisé isracidine[3].
+L'hydrolyse par la chymosine libère un peptide anti-bactérien, 1-23, baptisé isracidine.
 </t>
         </is>
       </c>
